--- a/data/base_datos_3_varl.xlsx
+++ b/data/base_datos_3_varl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3700A8C-2F10-4529-A10D-42B42EF4B2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA293EE2-695F-441E-AC2D-DE8212703641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86C100DC-9DD7-4D47-A9D7-DE2695A4206F}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Ciudad Autonoma de Buenos Aires</t>
-  </si>
-  <si>
     <t>0,882</t>
   </si>
   <si>
@@ -51,18 +48,12 @@
     <t>11,3</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
     <t>0,858</t>
   </si>
   <si>
     <t xml:space="preserve"> 7,9</t>
   </si>
   <si>
-    <t>Entre Rios</t>
-  </si>
-  <si>
     <t>0,836</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>0,833</t>
   </si>
   <si>
-    <t>Tucuman</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4,8</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t xml:space="preserve"> 5,1</t>
   </si>
   <si>
-    <t>Rio Negro</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7,0</t>
   </si>
   <si>
@@ -223,6 +208,21 @@
   </si>
   <si>
     <t>Argentina</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Entre Ríos</t>
+  </si>
+  <si>
+    <t>Ciudad Autónoma de Buenos Aires</t>
+  </si>
+  <si>
+    <t>Tucumán</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
   </si>
 </sst>
 </file>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC09C92-C2C1-4D62-958B-EB764B9D8E3D}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,479 +587,479 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>2019</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_datos_3_varl.xlsx
+++ b/data/base_datos_3_varl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA293EE2-695F-441E-AC2D-DE8212703641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61183D1-D9D5-43D6-A3AA-DEB02160F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86C100DC-9DD7-4D47-A9D7-DE2695A4206F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>Provincia</t>
   </si>
@@ -201,9 +201,6 @@
     <t xml:space="preserve">muertes_Tuberculosis </t>
   </si>
   <si>
-    <t>Pobreza_personas(%)</t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -223,6 +220,18 @@
   </si>
   <si>
     <t>Río Negro</t>
+  </si>
+  <si>
+    <t>La Pampa</t>
+  </si>
+  <si>
+    <t>0,861</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>Indigencia_personas(%)</t>
   </si>
 </sst>
 </file>
@@ -574,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC09C92-C2C1-4D62-958B-EB764B9D8E3D}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,18 +602,18 @@
         <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -619,7 +628,7 @@
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -639,12 +648,12 @@
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -659,12 +668,12 @@
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -679,7 +688,7 @@
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,7 +708,7 @@
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -719,7 +728,7 @@
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -739,7 +748,7 @@
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -779,7 +788,7 @@
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -799,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,7 +828,7 @@
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -839,7 +848,7 @@
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,12 +868,12 @@
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -879,7 +888,7 @@
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,7 +908,7 @@
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -919,7 +928,7 @@
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,7 +948,7 @@
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -959,7 +968,7 @@
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -979,87 +988,107 @@
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E24">
-        <v>2019</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
+      <c r="E25">
+        <v>2019</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_datos_3_varl.xlsx
+++ b/data/base_datos_3_varl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61183D1-D9D5-43D6-A3AA-DEB02160F73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB6CE5-EBC3-45F2-8882-CC575A2B5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86C100DC-9DD7-4D47-A9D7-DE2695A4206F}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <t>IDH_2019</t>
   </si>
   <si>
-    <t xml:space="preserve">muertes_Tuberculosis </t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Indigencia_personas(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muertes_Tuberc </t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,21 +599,21 @@
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -648,12 +648,12 @@
         <v>2019</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -668,12 +668,12 @@
         <v>2019</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
         <v>2019</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>2019</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>2019</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>2019</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>2019</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>2019</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>2019</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -868,12 +868,12 @@
         <v>2019</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -888,7 +888,7 @@
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,27 +988,27 @@
         <v>2019</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>2019</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1028,12 +1028,12 @@
         <v>2019</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1048,7 +1048,7 @@
         <v>2019</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>2019</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>2019</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/base_datos_3_varl.xlsx
+++ b/data/base_datos_3_varl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Ramos Castro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB6CE5-EBC3-45F2-8882-CC575A2B5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFFA404-1159-4D9E-B8B6-CA210F194879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{86C100DC-9DD7-4D47-A9D7-DE2695A4206F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>Provincia</t>
   </si>
@@ -232,6 +232,66 @@
   </si>
   <si>
     <t xml:space="preserve">muertes_Tuberc </t>
+  </si>
+  <si>
+    <t>tasa_empleo</t>
+  </si>
+  <si>
+    <t>54,3</t>
+  </si>
+  <si>
+    <t>61,1</t>
+  </si>
+  <si>
+    <t>52,6</t>
+  </si>
+  <si>
+    <t>50,8</t>
+  </si>
+  <si>
+    <t>55,0</t>
+  </si>
+  <si>
+    <t>50,7</t>
+  </si>
+  <si>
+    <t>51,3</t>
+  </si>
+  <si>
+    <t>53,5</t>
+  </si>
+  <si>
+    <t>51,9</t>
+  </si>
+  <si>
+    <t>49,4</t>
+  </si>
+  <si>
+    <t>50,9</t>
+  </si>
+  <si>
+    <t>42,8</t>
+  </si>
+  <si>
+    <t>48,4</t>
+  </si>
+  <si>
+    <t>52,5</t>
+  </si>
+  <si>
+    <t>49,0</t>
+  </si>
+  <si>
+    <t>53,8</t>
+  </si>
+  <si>
+    <t>51,8</t>
+  </si>
+  <si>
+    <t>52,3</t>
+  </si>
+  <si>
+    <t>51,4</t>
   </si>
 </sst>
 </file>
@@ -583,15 +643,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC09C92-C2C1-4D62-958B-EB764B9D8E3D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,16 +665,19 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -622,16 +688,19 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>2019</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>2019</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -642,16 +711,19 @@
         <v>209</v>
       </c>
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>2019</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>2019</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -662,16 +734,19 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>2019</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>2019</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -682,16 +757,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>2019</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>2019</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -702,16 +780,19 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>2019</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>2019</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -722,16 +803,19 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>2019</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>2019</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -742,16 +826,19 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
-        <v>2019</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2019</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -762,16 +849,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>2019</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>2019</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -782,16 +872,19 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2019</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -802,16 +895,19 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>2019</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>2019</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -822,16 +918,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12">
-        <v>2019</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>2019</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -842,16 +941,19 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
       </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>2019</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -862,16 +964,19 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="E14">
-        <v>2019</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>2019</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -882,16 +987,19 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>2019</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -902,16 +1010,19 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>2019</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2019</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -922,16 +1033,19 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="E17">
-        <v>2019</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>2019</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -942,16 +1056,19 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
       </c>
-      <c r="E18">
-        <v>2019</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2019</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -962,16 +1079,19 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="E19">
-        <v>2019</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>2019</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -982,16 +1102,19 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="E20">
-        <v>2019</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>2019</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1002,16 +1125,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21">
-        <v>2019</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>2019</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1022,16 +1148,19 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
         <v>48</v>
       </c>
-      <c r="E22">
-        <v>2019</v>
-      </c>
-      <c r="F22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2019</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1042,16 +1171,19 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>2019</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1062,16 +1194,19 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
         <v>55</v>
       </c>
-      <c r="E24">
-        <v>2019</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>2019</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1082,12 +1217,15 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="E25">
-        <v>2019</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>2019</v>
+      </c>
+      <c r="G25" t="s">
         <v>58</v>
       </c>
     </row>
